--- a/filterbank harmonic summation model/FS/amp_FS.xlsx
+++ b/filterbank harmonic summation model/FS/amp_FS.xlsx
@@ -613,175 +613,175 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2517713370626934</v>
+        <v>7.923943763816642e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2339737338011234</v>
+        <v>7.363803721583466e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2341189921579971</v>
+        <v>7.368375405812975e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2088257462468671</v>
+        <v>6.572326655615998e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2102809854063204</v>
+        <v>6.618127076732005e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2092149709288019</v>
+        <v>6.584576638187971e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1863473797404033</v>
+        <v>5.864869984107254e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1676704624439488</v>
+        <v>5.277055485184737e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1510593832067894</v>
+        <v>4.754258651886838e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1347166239218677</v>
+        <v>4.239906593268406e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1435154764912812</v>
+        <v>4.516830939619973e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08785783854572278</v>
+        <v>2.765130375716415e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1596439810569642</v>
+        <v>5.024439806713165e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1600683041527929</v>
+        <v>5.037794433924752e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1876145096485617</v>
+        <v>5.904750084244298e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1741242601454492</v>
+        <v>5.480174436874634e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07345944167399522</v>
+        <v>2.311972806504028e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1508986790772517</v>
+        <v>4.749200846260804e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07748948466597672</v>
+        <v>2.438809460774459e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.154070453282661</v>
+        <v>4.849025396300547e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1479876090180431</v>
+        <v>4.657581380316772e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1355272059784578</v>
+        <v>4.265417863563561e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1222594811278296</v>
+        <v>3.847845685504261e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1073619884316425</v>
+        <v>3.378980183483034e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.09474839296196423</v>
+        <v>2.981995275163725e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07225750767394649</v>
+        <v>2.274144602804122e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.08447744152229984</v>
+        <v>2.658739885736587e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07011627912306151</v>
+        <v>2.20675418886488e-05</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06336260605179457</v>
+        <v>1.994197325799105e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.07273349344988943</v>
+        <v>2.289125198152866e-05</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.08486394496662854</v>
+        <v>2.670904223397547e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1061623195087067</v>
+        <v>3.341223268055544e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1273542790088491</v>
+        <v>4.008193135568277e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1540150233053266</v>
+        <v>4.847280860848847e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1612849781247161</v>
+        <v>5.076086545508597e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1559590619730326</v>
+        <v>4.908465161084549e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.1450963111960075</v>
+        <v>4.566584201632563e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1047125803886747</v>
+        <v>3.295595948467221e-05</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.08214085543533475</v>
+        <v>2.585201027149926e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1249140661359299</v>
+        <v>3.93139285400192e-05</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.1682198886125703</v>
+        <v>5.29434745381515e-05</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.2178394201452654</v>
+        <v>6.856012026276379e-05</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.217766583092268</v>
+        <v>6.853719641771429e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2327113208264309</v>
+        <v>7.324072076453089e-05</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2544798862171991</v>
+        <v>8.009189333992461e-05</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.255709280564589</v>
+        <v>8.047881791147921e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.2417142757997226</v>
+        <v>7.607420092747624e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.21188957874061</v>
+        <v>6.668753979970744e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1898198799229058</v>
+        <v>5.974159216499667e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.2038534849123591</v>
+        <v>6.415835771255201e-05</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.1944769839042298</v>
+        <v>6.120731222990895e-05</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.2088594187345512</v>
+        <v>6.573386422394493e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.1963461720105174</v>
+        <v>6.17955976801518e-05</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1760332389247328</v>
+        <v>5.540255304974389e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.1578245387048649</v>
+        <v>4.967176898839138e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.1349591978091687</v>
+        <v>4.247541067724346e-05</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.1164402224797156</v>
+        <v>3.664697441495545e-05</v>
       </c>
     </row>
     <row r="3">
@@ -791,175 +791,175 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2005167221484191</v>
+        <v>6.310818572700645e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2354543477731081</v>
+        <v>7.410402758577924e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2428671641407489</v>
+        <v>7.643704693238018e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2273302965925011</v>
+        <v>7.154716287510456e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2087099383068948</v>
+        <v>6.56868185786241e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1473279137345007</v>
+        <v>4.636818936152036e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1157694655840089</v>
+        <v>3.643586857650772e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07836469678545442</v>
+        <v>2.466354818784871e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09843197422554234</v>
+        <v>3.097927815867408e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.134142251192478</v>
+        <v>4.221829487032834e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1692788941849106</v>
+        <v>5.327677302632307e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1835324296249186</v>
+        <v>5.776275679953022e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1843442858176264</v>
+        <v>5.801827050853202e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1652416634576336</v>
+        <v>5.200614430354159e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1355109027776339</v>
+        <v>4.264904756519662e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1201744735109125</v>
+        <v>3.782224700620401e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1157173833585274</v>
+        <v>3.641947685254803e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1094325564525987</v>
+        <v>3.444146714147834e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07930817224306139</v>
+        <v>2.496048613780912e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07715323074081704</v>
+        <v>2.428226615147895e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06162754934802756</v>
+        <v>1.939590268823992e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06693783463204657</v>
+        <v>2.106719706397388e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06734454399519614</v>
+        <v>2.119519980485031e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07649138974647646</v>
+        <v>2.40739663950044e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08316974590441317</v>
+        <v>2.617583069963935e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06898316787452022</v>
+        <v>2.171092028444477e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1261272883939979</v>
+        <v>3.969576330556871e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1249017303910406</v>
+        <v>3.931004613823638e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.111296950583949</v>
+        <v>3.50282437945622e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1001762753450334</v>
+        <v>3.15282582029977e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1048740142222917</v>
+        <v>3.300676719908811e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1130126826044738</v>
+        <v>3.556823234937663e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1047646130014387</v>
+        <v>3.297233559413077e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.09195217638338357</v>
+        <v>2.893990567484838e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08484237705159511</v>
+        <v>2.670225421164451e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.07886405096687703</v>
+        <v>2.482070882805432e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.06180933047999985</v>
+        <v>1.945311426299169e-05</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1426871375782965</v>
+        <v>4.49076081169974e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.07703994982991678</v>
+        <v>2.424661350022962e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1168208232831321</v>
+        <v>3.67667600664089e-05</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1527285881524632</v>
+        <v>4.80679317100293e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1849078366037114</v>
+        <v>5.819563560453896e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2229987032242784</v>
+        <v>7.018389004754793e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.2494579263684055</v>
+        <v>7.851134299252435e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2539417267515898</v>
+        <v>7.9922519598211e-05</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2312816231802629</v>
+        <v>7.279075517751591e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2199717644457012</v>
+        <v>6.923122828160632e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1899162761821275</v>
+        <v>5.977193074706188e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1458034609207521</v>
+        <v>4.588840168959293e-05</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1093539959672033</v>
+        <v>3.441674197317308e-05</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1326693874799217</v>
+        <v>4.17547437224407e-05</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1068102236148753</v>
+        <v>3.36161461109531e-05</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1002746289461557</v>
+        <v>3.155921281496245e-05</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.09905250412763038</v>
+        <v>3.117457616619461e-05</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.09083607818552872</v>
+        <v>2.858863855056501e-05</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1149153571559156</v>
+        <v>3.616705691464937e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.08953847080339536</v>
+        <v>2.818024544102778e-05</v>
       </c>
     </row>
     <row r="4">
@@ -969,175 +969,175 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1784375546571941</v>
+        <v>5.615925803756142e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1549686427054381</v>
+        <v>4.877293913910114e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1266715469633081</v>
+        <v>3.986705660473861e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1283652529557329</v>
+        <v>4.040011295630702e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1191446686311994</v>
+        <v>3.749813878762159e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1256249476953268</v>
+        <v>3.953766272537618e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1101652237027244</v>
+        <v>3.467205788923055e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08682762539206705</v>
+        <v>2.73270670434242e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09054886747952984</v>
+        <v>2.849824535850223e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0967821983845302</v>
+        <v>3.046004784677292e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1062105532416335</v>
+        <v>3.342741317694118e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1437848257993073</v>
+        <v>4.525308110987141e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1738509141552763</v>
+        <v>5.471571478811716e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1927617777301683</v>
+        <v>6.066748917359214e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.187158620938685</v>
+        <v>5.890401999423495e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1819957606686166</v>
+        <v>5.727912436799938e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1064149826740452</v>
+        <v>3.349175280133996e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1049507934417876</v>
+        <v>3.303093175350532e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1486177195556175</v>
+        <v>4.677412710296498e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1611208931964013</v>
+        <v>5.070922336748279e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1685480387709915</v>
+        <v>5.30467525137842e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1773147289934853</v>
+        <v>5.580587359278708e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1721872467694662</v>
+        <v>5.419211242095922e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1620990205425945</v>
+        <v>5.101706722991406e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1441307064304116</v>
+        <v>4.536193935806752e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09124956799085435</v>
+        <v>2.871877528505342e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.09956686987039909</v>
+        <v>3.133646136199504e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1017391347341957</v>
+        <v>3.20201334917003e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1136345278997064</v>
+        <v>3.576394434768047e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1351455570478548</v>
+        <v>4.253406310942437e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1651306754640746</v>
+        <v>5.19712132971101e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1762367458436241</v>
+        <v>5.546660233349696e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1850210881038904</v>
+        <v>5.823127899941686e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.1566702413151456</v>
+        <v>4.930847951669994e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1661233242374965</v>
+        <v>5.22836274563064e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.2105963557616331</v>
+        <v>6.628052658370594e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.2196803924068405</v>
+        <v>6.913952540242968e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2272609985141543</v>
+        <v>7.15253528437417e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.2117939157550578</v>
+        <v>6.6657431999247e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1812090223804494</v>
+        <v>5.703151596169674e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.1684405223199594</v>
+        <v>5.301291409827579e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.1442055758539464</v>
+        <v>4.538550284661394e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1009332900323891</v>
+        <v>3.176651176597165e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.1128992571278246</v>
+        <v>3.553253419926798e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.1268766284547319</v>
+        <v>3.99316014502322e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1288461596394213</v>
+        <v>4.055146765623623e-05</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1195459424868806</v>
+        <v>3.762443082322038e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.351433132559913</v>
+        <v>0.0001106057747333345</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.3976003070616778</v>
+        <v>0.0001251358677436918</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.3512070046094509</v>
+        <v>0.0001105346059822053</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.1249770757398165</v>
+        <v>3.933375941368428e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1438178472654706</v>
+        <v>4.526347388308893e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.1576836197124001</v>
+        <v>4.962741786468637e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1629980282025437</v>
+        <v>5.130000992799027e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.1548199709974014</v>
+        <v>4.872614802032258e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.2227469607466077</v>
+        <v>7.010465969276253e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.218203768467543</v>
+        <v>6.867479080667284e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1147,175 +1147,175 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1404572852397314</v>
+        <v>4.420581160836606e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1429179297141529</v>
+        <v>4.498024481690905e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1290413168844078</v>
+        <v>4.061288906553626e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1016503858849374</v>
+        <v>3.199220176210668e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1305771177288497</v>
+        <v>4.109624827813597e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1397331532391056</v>
+        <v>4.397790714086464e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1600711130367551</v>
+        <v>5.0378828373102e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1458854516443711</v>
+        <v>4.591420644920901e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1742253497330766</v>
+        <v>5.483356007170968e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1381118518886507</v>
+        <v>4.346763854257675e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.125949581406734</v>
+        <v>3.963983397739556e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1397819154957357</v>
+        <v>4.399325397834985e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1427360498290841</v>
+        <v>4.492300216181302e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0878128733828878</v>
+        <v>2.763715197063467e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1522581769168537</v>
+        <v>4.791988021932648e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1266299972494467</v>
+        <v>3.98539797549319e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1128361626180618</v>
+        <v>3.551267660336375e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1279026910939345</v>
+        <v>4.025453188171216e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.136460986463563</v>
+        <v>4.294806530828257e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1542494991727058</v>
+        <v>4.854660468109791e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1492768914293738</v>
+        <v>4.698158681300475e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1358182917379432</v>
+        <v>4.274579141473587e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1399646812631367</v>
+        <v>4.405077544523852e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1500053119004249</v>
+        <v>4.721084098134498e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1568753908739926</v>
+        <v>4.937304578490346e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1533879237963616</v>
+        <v>4.827544296308466e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.142287139005203</v>
+        <v>4.478171744827482e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1413579157132093</v>
+        <v>4.448926505096508e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1171367811375719</v>
+        <v>3.686620078509936e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1523847859069705</v>
+        <v>4.79597275875529e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.115537247944781</v>
+        <v>3.636278323106391e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1230986107974025</v>
+        <v>3.874255428526718e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1162057254809633</v>
+        <v>3.657317169171557e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1833782718608993</v>
+        <v>5.771423906645164e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1571796921909022</v>
+        <v>4.946881786724524e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1441208977206156</v>
+        <v>4.535885228446631e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1233759500666562</v>
+        <v>3.882984066181437e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1520392235931535</v>
+        <v>4.785096952265457e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1821299372182841</v>
+        <v>5.732135345755313e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1918944699361752</v>
+        <v>6.0394523304415e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.2026436725966952</v>
+        <v>6.377759615065481e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.1960947034559633</v>
+        <v>6.17164535365848e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1926485800347406</v>
+        <v>6.063186271256494e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.2277044158086566</v>
+        <v>7.166490859089432e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.2773937911157452</v>
+        <v>8.730353609258271e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.3098747253477601</v>
+        <v>9.752618888751239e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.3078038280235553</v>
+        <v>9.687441993997924e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.2609483801674937</v>
+        <v>8.212770817479434e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.2294667243196948</v>
+        <v>7.221955606184469e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.2371981965516465</v>
+        <v>7.465286526583247e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.2895694751363638</v>
+        <v>9.113556227121632e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3461682514465775</v>
+        <v>0.000108948770312102</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.3950975207080553</v>
+        <v>0.0001243481713144508</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.395564094082017</v>
+        <v>0.0001244950149234215</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.3796699310980625</v>
+        <v>0.0001194926800616723</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.3407916765998532</v>
+        <v>0.0001072566127684979</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.2981766912825112</v>
+        <v>9.384449242588694e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1325,175 +1325,175 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08457599758766678</v>
+        <v>2.661841719045579e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09061666226398735</v>
+        <v>2.851958226149479e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08236043438307136</v>
+        <v>2.592111786944436e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08247465413203092</v>
+        <v>2.595706599912553e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07968990143168035</v>
+        <v>2.508062692344871e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07575587025495741</v>
+        <v>2.3842477967609e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0645529389266324</v>
+        <v>2.031660409843849e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05452608382903818</v>
+        <v>1.716087410755829e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03938235788643813</v>
+        <v>1.239472264076391e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04488003360923362</v>
+        <v>1.412499399600892e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04884568707394333</v>
+        <v>1.537309536480451e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05040262114710971</v>
+        <v>1.586310579187185e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04603861852566589</v>
+        <v>1.448963287152672e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04081109690962365</v>
+        <v>1.284438652248184e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05196714755831741</v>
+        <v>1.63555057387462e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05394108739305866</v>
+        <v>1.69767594694579e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05081463471640476</v>
+        <v>1.599277791385014e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04539805503271685</v>
+        <v>1.428802973613811e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0368307127555375</v>
+        <v>1.159164899630698e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03727374538812421</v>
+        <v>1.173108367966327e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03839575743691192</v>
+        <v>1.208421205720787e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03951983592351545</v>
+        <v>1.243799080016878e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.039783835738815</v>
+        <v>1.252107887979281e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04232812229926095</v>
+        <v>1.332183657759969e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04343484504682667</v>
+        <v>1.367015298709089e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04293147885556729</v>
+        <v>1.351172965587774e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04642238251286771</v>
+        <v>1.461041406483659e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05338935465943325</v>
+        <v>1.680311384303714e-05</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05918162673323184</v>
+        <v>1.862610285810825e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05832882292725854</v>
+        <v>1.835770179709237e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.05385368915569198</v>
+        <v>1.694925281496618e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.04723362668940623</v>
+        <v>1.486573515533921e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.06081638043048006</v>
+        <v>1.914060528383357e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.08201069270064336</v>
+        <v>2.581104444108059e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0948776003416896</v>
+        <v>2.986061790529448e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.09570838949871716</v>
+        <v>3.012209034440043e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.09907255089424935</v>
+        <v>3.118088544083995e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.08381465006613682</v>
+        <v>2.637879996413816e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.07968351678419247</v>
+        <v>2.507861749742602e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.09241179596806402</v>
+        <v>2.908456073305501e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.09898794000980994</v>
+        <v>3.115425604378758e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.1154396680419455</v>
+        <v>3.633207212345461e-05</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1335840663179608</v>
+        <v>4.204261857583475e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1471646169605255</v>
+        <v>4.631679532799419e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1446270471028596</v>
+        <v>4.551815156323976e-05</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1562544969717085</v>
+        <v>4.917763321640401e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1748475439838238</v>
+        <v>5.502938189601301e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1544638241090579</v>
+        <v>4.861405869562753e-05</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.130191363631611</v>
+        <v>4.097484074188334e-05</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.1081385136971052</v>
+        <v>3.403419591902177e-05</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.09237515148333598</v>
+        <v>2.907302769519508e-05</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.09761605052700553</v>
+        <v>3.072248429253352e-05</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.09877917675283701</v>
+        <v>3.108855244434279e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.08093927754909609</v>
+        <v>2.547384031341425e-05</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.06089620691477188</v>
+        <v>1.916572889717935e-05</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.04103620254223235</v>
+        <v>1.291523352176776e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.035585891090878</v>
+        <v>1.119986901921267e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1503,175 +1503,175 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2337595673516744</v>
+        <v>7.357063308153849e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2252244945612207</v>
+        <v>7.088440844609497e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1977551520153384</v>
+        <v>6.223904284959793e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2267665650331872</v>
+        <v>7.136974088473796e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2529087949810624</v>
+        <v>7.959742726017886e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2702099018358244</v>
+        <v>8.504256646340674e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2597493875131412</v>
+        <v>8.175035186103917e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2344051129845859</v>
+        <v>7.377380423484952e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1868030014473821</v>
+        <v>5.879209665604736e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1562097928276814</v>
+        <v>4.916356357974826e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.114572715697885</v>
+        <v>3.60592181242508e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1509187188208263</v>
+        <v>4.749831552690612e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1329298706796607</v>
+        <v>4.183672502540517e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1056744377372319</v>
+        <v>3.325868272663059e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1008926060693591</v>
+        <v>3.17537073920147e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1000167441260815</v>
+        <v>3.147804929429921e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1075719068545782</v>
+        <v>3.385586899711088e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1006366792022728</v>
+        <v>3.167316009357712e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08621055932767964</v>
+        <v>2.713285920190378e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08806947111990861</v>
+        <v>2.771791041048715e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.08387504500602271</v>
+        <v>2.639780793036887e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09987517626513025</v>
+        <v>3.143349395364651e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.06106552082839718</v>
+        <v>1.921901669179692e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.08666597999964562</v>
+        <v>2.72761927455724e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1044493073429275</v>
+        <v>3.287310013962652e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07191955705583097</v>
+        <v>2.263508357534362e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09278288641765561</v>
+        <v>2.920135321182399e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1060664462726254</v>
+        <v>3.338205870840967e-05</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1127965183971784</v>
+        <v>3.550019946515945e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1375005598029005</v>
+        <v>4.327524793261847e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1562987337578691</v>
+        <v>4.919155576254919e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1776626371553993</v>
+        <v>5.591536996128328e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2034379754678065</v>
+        <v>6.402758534146397e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2101770271728514</v>
+        <v>6.61485522217777e-05</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2689722017724744</v>
+        <v>8.465302785218607e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.318204588169559</v>
+        <v>0.0001001478282421068</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.323772276173859</v>
+        <v>0.0001019001344082994</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.2759141502668711</v>
+        <v>8.683785199152857e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.3448868082410617</v>
+        <v>0.0001085454645182219</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2322339650957898</v>
+        <v>7.309048364822269e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.3089669799393152</v>
+        <v>9.724049617712303e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.3419294420151862</v>
+        <v>0.0001076146991683516</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3503397907386051</v>
+        <v>0.0001102616696732532</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.2997360203331292</v>
+        <v>9.433525661892556e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2782207958137637</v>
+        <v>8.756381745725131e-05</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2496973619953814</v>
+        <v>7.858670003933304e-05</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2258524866662534</v>
+        <v>7.108205501629056e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.200828551874656</v>
+        <v>6.320632720901213e-05</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1767914936512642</v>
+        <v>5.564119688751271e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1533134094430668</v>
+        <v>4.82519912250118e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1793301838898219</v>
+        <v>5.644019326727425e-05</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.2010879156721244</v>
+        <v>6.328795620496877e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.2092769942707604</v>
+        <v>6.586528685150332e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.2047625704745565</v>
+        <v>6.444447220657624e-05</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.1944925627406146</v>
+        <v>6.121221532272557e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1564422919418909</v>
+        <v>4.92367375131923e-05</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.1507551931356646</v>
+        <v>4.744684944866711e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1681,175 +1681,175 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2158150906346064</v>
+        <v>6.792300750048369e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2133113704415464</v>
+        <v>6.713501716601606e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1959859766267406</v>
+        <v>6.168223418141791e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1905848065688878</v>
+        <v>5.998233584125941e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2078669609235662</v>
+        <v>6.542151016593524e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1993032561690768</v>
+        <v>6.272627425559784e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1971009099214533</v>
+        <v>6.203313467830451e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1683933726995628</v>
+        <v>5.299807480223572e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1450294793829577</v>
+        <v>4.564480818720041e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.119474489740355</v>
+        <v>3.760194265789366e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1182631186479968</v>
+        <v>3.722069050564532e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1426699941041772</v>
+        <v>4.490221258919736e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1872495202237802</v>
+        <v>5.893262852575681e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.221823045277772</v>
+        <v>6.981387781492901e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2403673669025896</v>
+        <v>7.565029126085647e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1116386008678315</v>
+        <v>3.513577063490715e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1312118658348819</v>
+        <v>4.129602114962593e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2229427268437788</v>
+        <v>7.016627272476782e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2156068730737498</v>
+        <v>6.785747564677405e-05</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2124285229380261</v>
+        <v>6.685716051833188e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06723506868334908</v>
+        <v>2.116074488139784e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08095844902979185</v>
+        <v>2.547987411125139e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0754852007449499</v>
+        <v>2.375729074967937e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2382622504217083</v>
+        <v>7.4987752593612e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2399276799685591</v>
+        <v>7.55119095618279e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2410268836263457</v>
+        <v>7.585785950477607e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2291646481428867</v>
+        <v>7.212448429293958e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2181518747116329</v>
+        <v>6.865845839932564e-05</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2213597385522987</v>
+        <v>6.966806231103255e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2010801642888059</v>
+        <v>6.328551662919243e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1783309711487522</v>
+        <v>5.612571324501684e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.1492483975205809</v>
+        <v>4.697261898793298e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1786809123090729</v>
+        <v>5.623584945461783e-05</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1941457767273837</v>
+        <v>6.110307212560954e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2139131215019689</v>
+        <v>6.732440495011545e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.202192414713483</v>
+        <v>6.363557275230973e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1871313245364037</v>
+        <v>5.889542905774654e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1744597531124937</v>
+        <v>5.490733333034265e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.1723661475679406</v>
+        <v>5.424841747470169e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.2167948379150616</v>
+        <v>6.823136120125251e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.2426261699114616</v>
+        <v>7.636119935010353e-05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.244414500702465</v>
+        <v>7.692403675583587e-05</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2509582361896415</v>
+        <v>7.898353219366507e-05</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.2417265438805395</v>
+        <v>7.607806203349481e-05</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.2151241997748074</v>
+        <v>6.77055649439222e-05</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.194472955712735</v>
+        <v>6.120604444608384e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.2093186312913422</v>
+        <v>6.587839117916161e-05</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.2220683260054511</v>
+        <v>6.989107447739077e-05</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.1857023641835286</v>
+        <v>5.844569551742352e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.1474386734575735</v>
+        <v>4.640304852488517e-05</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.1590861466057231</v>
+        <v>5.006883206058286e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.1578877857935823</v>
+        <v>4.969167460513352e-05</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.1242358014526249</v>
+        <v>3.910045979213891e-05</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1019286082202177</v>
+        <v>3.207976606407681e-05</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0927214194702743</v>
+        <v>2.918200785503854e-05</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.1295411557135695</v>
+        <v>4.07702022378559e-05</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.1276580221321141</v>
+        <v>4.017752775896986e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1859,175 +1859,175 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.434296666795359</v>
+        <v>0.0001366852321097423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3075217513204383</v>
+        <v>9.678564256132056e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1934537307965425</v>
+        <v>6.088526603608643e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1143629315413949</v>
+        <v>3.599319321935255e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07297297089569903</v>
+        <v>2.296662218988662e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09540203764251946</v>
+        <v>3.002567290035091e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1073309744371878</v>
+        <v>3.378004086875621e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1161397171617229</v>
+        <v>3.655239703898078e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1077346386667926</v>
+        <v>3.390708522146807e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1068164466624199</v>
+        <v>3.361810467698205e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08999588691512372</v>
+        <v>2.832420700505191e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1129168026679427</v>
+        <v>3.553805626841308e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1185329858061603</v>
+        <v>3.730562520114867e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.111854821970504</v>
+        <v>3.520382142568086e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2571140706023325</v>
+        <v>8.092094438182787e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2761217298170581</v>
+        <v>8.690318304554727e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2459635891130061</v>
+        <v>7.741157793480858e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2397555536456972</v>
+        <v>7.5457736623854e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>0.233424791306524</v>
+        <v>7.346526975518878e-05</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2043280494349136</v>
+        <v>6.430771635809501e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1591230262245999</v>
+        <v>5.008043910169487e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1124199625182098</v>
+        <v>3.538168686385655e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>0.08563525797291381</v>
+        <v>2.695179587533151e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.06426940621999239</v>
+        <v>2.022736847500218e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1215794966343909</v>
+        <v>3.826444683511197e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.134979717554005</v>
+        <v>4.248186881128e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1355480112461662</v>
+        <v>4.266072663165595e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1091405504817808</v>
+        <v>3.43495647462949e-05</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.07981873311926901</v>
+        <v>2.512117383634832e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.06906521357283271</v>
+        <v>2.173674234612487e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.06903630228810347</v>
+        <v>2.172764316124516e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.08383275874045654</v>
+        <v>2.638449926726856e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1071158347114612</v>
+        <v>3.371233041736372e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.09597721815413281</v>
+        <v>3.020669819422431e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0919177440370252</v>
+        <v>2.89290688584187e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0797081631149433</v>
+        <v>2.508637438274635e-05</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.1295683800260303</v>
+        <v>4.077877048567413e-05</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.07020499616898077</v>
+        <v>2.209546360884768e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.07003124753975047</v>
+        <v>2.204078008596842e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.08965519202247853</v>
+        <v>2.821698085288401e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.1484239534765115</v>
+        <v>4.671314353223434e-05</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.208199888827921</v>
+        <v>6.552629183100841e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2429389838525824</v>
+        <v>7.645965059188892e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.2589248157517727</v>
+        <v>8.149083620915668e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.2564862843148948</v>
+        <v>8.072336258815004e-05</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2674418094617657</v>
+        <v>8.417137085547979e-05</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.2667202801086976</v>
+        <v>8.394428551350419e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.2357218591260503</v>
+        <v>7.418822084390091e-05</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1769176848373931</v>
+        <v>5.568091276121146e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.1297025398713988</v>
+        <v>4.082099431792068e-05</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.1447729585581816</v>
+        <v>4.556407395376909e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.175910612795837</v>
+        <v>5.536395919864547e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.1887577888009664</v>
+        <v>5.940732256860485e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.1897697041894949</v>
+        <v>5.97258004670816e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.1663988914930882</v>
+        <v>5.237035613090188e-05</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.1346325577279943</v>
+        <v>4.237260796489222e-05</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.1091433792646795</v>
+        <v>3.435045504289781e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2037,175 +2037,175 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.226070907846383</v>
+        <v>7.115079823259013e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1309819212230673</v>
+        <v>4.122365118908679e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.161775287475127</v>
+        <v>5.091517943557542e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1389743434717735</v>
+        <v>4.373908861632876e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1290648464566674</v>
+        <v>4.062029447591962e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1185868403718645</v>
+        <v>3.732257472983779e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1271453381390624</v>
+        <v>4.001617185654881e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1318373521741801</v>
+        <v>4.149287908569832e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1266813352075037</v>
+        <v>3.987013723724658e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1339697105306752</v>
+        <v>4.216399152837339e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.138238323199269</v>
+        <v>4.350744257923827e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1304542978930182</v>
+        <v>4.105759346208088e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1202328131055461</v>
+        <v>3.784060809815647e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1075997669336621</v>
+        <v>3.386463733835623e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09168442951204346</v>
+        <v>2.885563829254073e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09158224926759868</v>
+        <v>2.882347932956268e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1116257138283796</v>
+        <v>3.513171472540247e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1100889814660831</v>
+        <v>3.464806233824286e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1028444096760343</v>
+        <v>3.236799423648808e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1162437111342522</v>
+        <v>3.658512683259876e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1244385317849004</v>
+        <v>3.916426466249915e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1362171598988862</v>
+        <v>4.287132631133538e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08863892422205617</v>
+        <v>2.789713312941106e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1160674476664301</v>
+        <v>3.652965182011592e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1235957671320383</v>
+        <v>3.889902320200088e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1250637195464298</v>
+        <v>3.936102862784889e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1192615232051868</v>
+        <v>3.753491616997271e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.09677145846700329</v>
+        <v>3.045666769621631e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.075179371614183</v>
+        <v>2.366103782185183e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.06216043412589629</v>
+        <v>1.95636163391141e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.06499384730132465</v>
+        <v>2.045537021879265e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.05553463826038604</v>
+        <v>1.747829421939407e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1184915892180637</v>
+        <v>3.729259654427617e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1565754998363568</v>
+        <v>4.927866174003076e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1829495305397873</v>
+        <v>5.757930225603664e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.208250583210109</v>
+        <v>6.554224676210923e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.2230702982325564</v>
+        <v>7.020642298660218e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2435151623378781</v>
+        <v>7.664098997581833e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.2573157527317282</v>
+        <v>8.098441935360754e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.2516722885799027</v>
+        <v>7.920826432762675e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.2163220173012023</v>
+        <v>6.808255141224693e-05</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.2208247240336289</v>
+        <v>6.949967837153315e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.2035135449619925</v>
+        <v>6.405136916170241e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1817679436529899</v>
+        <v>5.720742402111612e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1728698205249743</v>
+        <v>5.440693735363042e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.2160911190063123</v>
+        <v>6.800988130113681e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.2389984895391</v>
+        <v>7.52194675072712e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.2674382845223311</v>
+        <v>8.417026145906576e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.2351515715180542</v>
+        <v>7.40087354827918e-05</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.2230596479292414</v>
+        <v>7.020307104012882e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.2202819320348057</v>
+        <v>6.93288466428581e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.2140541057927476</v>
+        <v>6.736877662501481e-05</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.189903419421074</v>
+        <v>5.976788436701081e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.1618252796288317</v>
+        <v>5.093091335585442e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.1262211141981694</v>
+        <v>3.972529289398506e-05</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.1363453557227271</v>
+        <v>4.291167310024004e-05</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1555214158704118</v>
+        <v>4.894691221818549e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2215,175 +2215,175 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3469572725459572</v>
+        <v>0.0001091970971825429</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3028230045220938</v>
+        <v>9.530681634444962e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2788749569246708</v>
+        <v>8.776970014095063e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2309407780698479</v>
+        <v>7.268348174764062e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2022426805724828</v>
+        <v>6.365139281525261e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1840371191512966</v>
+        <v>5.792159662108665e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1557860095988248</v>
+        <v>4.903018721877387e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1431122204756813</v>
+        <v>4.504139351978133e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1158786986599921</v>
+        <v>3.647024726160104e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08492925120239833</v>
+        <v>2.672959592152798e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1217855988346335</v>
+        <v>3.832931292604091e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1645723382755173</v>
+        <v>5.179548906515457e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1920226670833513</v>
+        <v>6.043487050981005e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1754173849149484</v>
+        <v>5.520872667549552e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1553558533259848</v>
+        <v>4.889480508372216e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1308851265408313</v>
+        <v>4.119318721222498e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1091395929802449</v>
+        <v>3.434926339394826e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08598519937581575</v>
+        <v>2.706193216127957e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06039807630824606</v>
+        <v>1.900895335000245e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06570668428684612</v>
+        <v>2.067971983110116e-05</v>
       </c>
       <c r="V11" t="n">
-        <v>0.07051979662183001</v>
+        <v>2.219454006108816e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06852900935708461</v>
+        <v>2.156798397588785e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.08591417550365874</v>
+        <v>2.703957897463702e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.08679849170958188</v>
+        <v>2.731789786378927e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.09056234311095782</v>
+        <v>2.850248651426138e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.09344635015260519</v>
+        <v>2.941016368987151e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.09117487176922498</v>
+        <v>2.869526630796071e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.07178980170358096</v>
+        <v>2.259424595950225e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.06632632326765858</v>
+        <v>2.087473744093352e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1033477938779782</v>
+        <v>3.252642323616425e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1655773721831765</v>
+        <v>5.211180117033427e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.2381902407080584</v>
+        <v>7.496508913525065e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.2597232260883832</v>
+        <v>8.174211813352349e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2639659542361565</v>
+        <v>8.307742260623818e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.2588384597893265</v>
+        <v>8.146365758755197e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.2681548857852653</v>
+        <v>8.439579579410229e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.2688077667470075</v>
+        <v>8.460127557927834e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.2865401657587986</v>
+        <v>9.018215441188356e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.2664614864146611</v>
+        <v>8.386283594494328e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.2140686006908572</v>
+        <v>6.73733385723287e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.1996045728720081</v>
+        <v>6.282110699696474e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.2373676967470429</v>
+        <v>7.470621168850097e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.2562389048890744</v>
+        <v>8.064550540705091e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.2610585310122004</v>
+        <v>8.216237570721388e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.2666009105098357</v>
+        <v>8.390671658292113e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2611776726852024</v>
+        <v>8.219987290319369e-05</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.2540364113692559</v>
+        <v>7.995231947910444e-05</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.228855520202478</v>
+        <v>7.202719313802889e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.2031503520157666</v>
+        <v>6.393706224675e-05</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.2222168279551123</v>
+        <v>6.993781216849018e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.2367499330311298</v>
+        <v>7.451178427665457e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.2689395990223568</v>
+        <v>8.464276686054611e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.2615590570251811</v>
+        <v>8.231990515538131e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.2303417302187289</v>
+        <v>7.249494473864345e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2008430833694339</v>
+        <v>6.32109006743147e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.1865242720370118</v>
+        <v>5.870437276345248e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1604043625189721</v>
+        <v>5.048371124766651e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2393,175 +2393,175 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2597137558003736</v>
+        <v>8.173913757066474e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2405472732483289</v>
+        <v>7.57069127882719e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2135043490842974</v>
+        <v>6.719575290863936e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1775371361072187</v>
+        <v>5.587587129317895e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1541572805798333</v>
+        <v>4.851758092674902e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1380510915230249</v>
+        <v>4.344851556670885e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1191580506550577</v>
+        <v>3.750235048247678e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1071953929649006</v>
+        <v>3.373736961100493e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1020575001834368</v>
+        <v>3.212033194739268e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1093311501506594</v>
+        <v>3.440955175971812e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1252831771663093</v>
+        <v>3.943009804054508e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1353068674707543</v>
+        <v>4.258483198305732e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1298215340634543</v>
+        <v>4.085844509754753e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1293569093906277</v>
+        <v>4.071221479898722e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1269891452334515</v>
+        <v>3.996701360784556e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1165979726982514</v>
+        <v>3.669662279332096e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1158042548504562</v>
+        <v>3.644681772560981e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09851130279405713</v>
+        <v>3.100424506408552e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08147430547858302</v>
+        <v>2.564222847367055e-05</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06455679550740907</v>
+        <v>2.031781787160074e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06161108746822515</v>
+        <v>1.939072167711599e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07184437168594976</v>
+        <v>2.261142064970041e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07929621345767808</v>
+        <v>2.495672237566024e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07091670445870506</v>
+        <v>2.231945798921724e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06210600438889259</v>
+        <v>1.954648578803039e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.07918356393739866</v>
+        <v>2.492126844058848e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0645568396819116</v>
+        <v>2.031783177454449e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.04944113101409605</v>
+        <v>1.556049812285161e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04958216635243802</v>
+        <v>1.560488586383796e-05</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.07132796835270734</v>
+        <v>2.244889416754404e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.08890024569969032</v>
+        <v>2.797937826172867e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.1009153230428594</v>
+        <v>3.176085705498271e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.112676113351712</v>
+        <v>3.546230465075022e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.110113564921487</v>
+        <v>3.465579943494389e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.1080142783586798</v>
+        <v>3.399509560495719e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.145964390267799</v>
+        <v>4.593905062806324e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.1413323354672318</v>
+        <v>4.448121423656521e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.160364742806641</v>
+        <v>5.047124182298487e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.1412161932019569</v>
+        <v>4.444466103756417e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.147260210514407</v>
+        <v>4.634688127637806e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.120947031581248</v>
+        <v>3.806539250382263e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.1340201196003394</v>
+        <v>4.217985666369283e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.1340036132699636</v>
+        <v>4.217466166273797e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1198467978199651</v>
+        <v>3.771911835867293e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1042594070125989</v>
+        <v>3.281333322748278e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1560853514870189</v>
+        <v>4.912439843105393e-05</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1559978083921665</v>
+        <v>4.909684618588522e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1437492149956665</v>
+        <v>4.524187340018029e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1409119998941124</v>
+        <v>4.434892294867724e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1425519434507483</v>
+        <v>4.486505876740153e-05</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.1683770606201686</v>
+        <v>5.299294093746388e-05</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.1758808321854372</v>
+        <v>5.535458641281474e-05</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.1813080732537428</v>
+        <v>5.706269002459408e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.1806462986834088</v>
+        <v>5.685441117360061e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.1716807301817351</v>
+        <v>5.403269757241263e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.1299219137971357</v>
+        <v>4.0890037389744e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1679586133017049</v>
+        <v>5.286124393579919e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2571,175 +2571,175 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1528906870499167</v>
+        <v>4.811894873851965e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1345758267600456</v>
+        <v>4.235475315246851e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1300070169480622</v>
+        <v>4.091682171674215e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1416176049238929</v>
+        <v>4.457099646350527e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1553330816055688</v>
+        <v>4.888763819037811e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1583847198707588</v>
+        <v>4.984807357126722e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1473992463960549</v>
+        <v>4.639063973276886e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1316201929952979</v>
+        <v>4.142453305626803e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.10579611330281</v>
+        <v>3.329697740903247e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0909328268803456</v>
+        <v>2.861908805390783e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07841314560458354</v>
+        <v>2.467879637784052e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0663884249804018</v>
+        <v>2.089428257602138e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08190627590130059</v>
+        <v>2.577818157211217e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0702789236275962</v>
+        <v>2.21187306348525e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07736891726053965</v>
+        <v>2.435014869413986e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0857189930891934</v>
+        <v>2.697814964380242e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08937338583662439</v>
+        <v>2.812828861352684e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0912283778085809</v>
+        <v>2.871210614572092e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0952833509104572</v>
+        <v>2.998831888692966e-05</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0996798024944156</v>
+        <v>3.13720043976816e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>0.09481341518457295</v>
+        <v>2.984041705235396e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07344701431978422</v>
+        <v>2.311581683125768e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.05548413663689546</v>
+        <v>1.746239995481299e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0567820227223217</v>
+        <v>1.787088078002292e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.05694721845758144</v>
+        <v>1.792287246944604e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05782015021714099</v>
+        <v>1.81976083569024e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09259788132383155</v>
+        <v>2.914312696666899e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.08509635249587419</v>
+        <v>2.678218734308579e-05</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.08123575329781205</v>
+        <v>2.556714947193755e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.07316942573182041</v>
+        <v>2.302845198718273e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.06839676628901369</v>
+        <v>2.152636340673276e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.06609283943135957</v>
+        <v>2.080125358807807e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.07122164111761706</v>
+        <v>2.241543003134621e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0563200545647422</v>
+        <v>1.772548656064749e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.06387238161646933</v>
+        <v>2.01024137971635e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.06488475793379891</v>
+        <v>2.042103676274524e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.06851075511590207</v>
+        <v>2.156223885881976e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.07208165478955279</v>
+        <v>2.268610023757526e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.08155397777621254</v>
+        <v>2.566730356018817e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.09716570721049238</v>
+        <v>3.058074873374859e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1087117238165692</v>
+        <v>3.421460107571968e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.1218646782796802</v>
+        <v>3.835420142537266e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.1355051195335878</v>
+        <v>4.264722741755278e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.1574271086114827</v>
+        <v>4.954668669162364e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.164693819709846</v>
+        <v>5.183372264905651e-05</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1934116009114973</v>
+        <v>6.087200659028257e-05</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1797043796622577</v>
+        <v>5.655796307745327e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.1856148746287426</v>
+        <v>5.841816012280185e-05</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1613029778045471</v>
+        <v>5.076653045462132e-05</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1421654965465214</v>
+        <v>4.474343318553349e-05</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1449439325609168</v>
+        <v>4.561788422457093e-05</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1447107275823829</v>
+        <v>4.554448813600488e-05</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1207767456767423</v>
+        <v>3.801179879665899e-05</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.1247845739102892</v>
+        <v>3.927317373743527e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.1336056918142797</v>
+        <v>4.204942472059669e-05</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.1619590515225914</v>
+        <v>5.097301508894674e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1588860092719159</v>
+        <v>5.000584327891178e-05</v>
       </c>
     </row>
     <row r="14">
@@ -2749,175 +2749,175 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2986013388734386</v>
+        <v>9.397814082562956e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3050203509542055</v>
+        <v>9.599838234083396e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3065766803131106</v>
+        <v>9.648820244751549e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3044239150243588</v>
+        <v>9.581066737605822e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2889744311865108</v>
+        <v>9.09482854012341e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2700671558874649</v>
+        <v>8.499764034590228e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2305052706983149</v>
+        <v>7.254641547309897e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1911460693867319</v>
+        <v>6.015898085006796e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1506580459278185</v>
+        <v>4.741627452219749e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.115485759741827</v>
+        <v>3.63465784625042e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1785420616434403</v>
+        <v>5.619214929085507e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2559451163238574</v>
+        <v>8.05530419798637e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2822048014875707</v>
+        <v>8.881769477634071e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2671300752069248</v>
+        <v>8.407325942097609e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09766299717272105</v>
+        <v>3.073725970679986e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08072559332907633</v>
+        <v>2.540658795012279e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2253024647317878</v>
+        <v>7.090894782591623e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2434619819662538</v>
+        <v>7.662425263474509e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2338328475403258</v>
+        <v>7.359369639369508e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2161418324423102</v>
+        <v>6.802584222900121e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1966445208634302</v>
+        <v>6.188949635662791e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1892822854552577</v>
+        <v>5.957239624384532e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1856663153622241</v>
+        <v>5.843434995139918e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.166182071396012</v>
+        <v>5.230211681994054e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1412829703559553</v>
+        <v>4.44656776639667e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1106825707812686</v>
+        <v>3.483488139426436e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.08244338748268502</v>
+        <v>2.594722551553473e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.06172942048156041</v>
+        <v>1.942796436542241e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.04738894135986</v>
+        <v>1.491461699902839e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.06076508989783902</v>
+        <v>1.912446272761547e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.07361928402924463</v>
+        <v>2.317003489697949e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.1179521265255524</v>
+        <v>3.712281264083397e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.1242294069916006</v>
+        <v>3.909844727752358e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1593528356156727</v>
+        <v>5.015276650450816e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.1877758903189052</v>
+        <v>5.909829182489903e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.2149853082420342</v>
+        <v>6.766185191813436e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.21061374551474</v>
+        <v>6.628599962234861e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.1808091072913036</v>
+        <v>5.690565156769291e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1085107355699808</v>
+        <v>3.41513444881456e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1453793080935305</v>
+        <v>4.575490900574027e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.2054093793399449</v>
+        <v>6.464804093425869e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.2457795016913438</v>
+        <v>7.735364050658909e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.2786349045210856</v>
+        <v>8.769414897739999e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.3056012816901622</v>
+        <v>9.618121739013289e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3160921051845895</v>
+        <v>9.948297113127736e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.3017608642737404</v>
+        <v>9.497253128660995e-05</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.2626587191178345</v>
+        <v>8.266599938052405e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.2099493850630051</v>
+        <v>6.607690692260492e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1682470850229685</v>
+        <v>5.295203400441512e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.1825458843089207</v>
+        <v>5.745226356802796e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.1971536548529262</v>
+        <v>6.204973497425932e-05</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.2103221377526514</v>
+        <v>6.619422255452029e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.2243638820503107</v>
+        <v>7.061354976859626e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.2177700396852517</v>
+        <v>6.853828430360061e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.195671387848455</v>
+        <v>6.158322434904602e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.1565492002079031</v>
+        <v>4.927038451597071e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1362220115123204</v>
+        <v>4.287285324893141e-05</v>
       </c>
     </row>
     <row r="15">
@@ -2927,175 +2927,175 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3298041163001501</v>
+        <v>0.0001037985221481699</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2915721204092368</v>
+        <v>9.17658504011621e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2590625715667631</v>
+        <v>8.15341917929915e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2219570601021182</v>
+        <v>6.985605600502907e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2024890004016365</v>
+        <v>6.372891651182974e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1731246688354623</v>
+        <v>5.448714520032854e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1389873706872903</v>
+        <v>4.374318864313713e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09494699913995792</v>
+        <v>2.988245963601609e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08554914249282153</v>
+        <v>2.692469294020767e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1047615462944449</v>
+        <v>3.297137041620216e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.133785564106616</v>
+        <v>4.210603553045972e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1495527072451257</v>
+        <v>4.706839371639125e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1422193427562116</v>
+        <v>4.476038008435274e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1149796857690229</v>
+        <v>3.618730291717743e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1298862534558613</v>
+        <v>4.087881408918273e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1638034317876909</v>
+        <v>5.15534928220456e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2106565817889182</v>
+        <v>6.629948138844635e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.215211540988708</v>
+        <v>6.773305365154422e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2358261041686948</v>
+        <v>7.422102965626252e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2264724296186957</v>
+        <v>7.127716829444356e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2195698147742854</v>
+        <v>6.910472354801188e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2122600835986773</v>
+        <v>6.68041479765475e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.07042889080196345</v>
+        <v>2.216592947289213e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06759361325806178</v>
+        <v>2.12735888246358e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2287089008372754</v>
+        <v>7.198104794858414e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2204281695013361</v>
+        <v>6.937487163817603e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.177991388527651</v>
+        <v>5.60188371556189e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1401473685521336</v>
+        <v>4.410827221279211e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.1054610594850179</v>
+        <v>3.319152665991184e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.106071403308321</v>
+        <v>3.338361882532154e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1064663795590796</v>
+        <v>3.350792882961225e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.09732291802073424</v>
+        <v>3.063022734533138e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.1474798783206681</v>
+        <v>4.641601684057059e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1924164237658664</v>
+        <v>6.055879668207719e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2419068305556428</v>
+        <v>7.613480326113217e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.2612141461388832</v>
+        <v>8.221135211282936e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.3056222070686234</v>
+        <v>9.61878031883456e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.3044828284802493</v>
+        <v>9.582920907809846e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.2688198593084313</v>
+        <v>8.460508144446537e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.2581056570371694</v>
+        <v>8.123302419354428e-05</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.3019466209345255</v>
+        <v>9.503099407077699e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.2625039760492479</v>
+        <v>8.261729743582984e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.2435764949038281</v>
+        <v>7.666029303903232e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.2443624194766769</v>
+        <v>7.690764534650743e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.2488185343015874</v>
+        <v>7.831010853749838e-05</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.2285685559931989</v>
+        <v>7.193687752533512e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1850437856245339</v>
+        <v>5.823842254003018e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1470484919268513</v>
+        <v>4.628024755225686e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1185724478374506</v>
+        <v>3.73180449992241e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1149566281995514</v>
+        <v>3.618004605919058e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.1318647756470493</v>
+        <v>4.150151001483265e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.1463454620046334</v>
+        <v>4.605898449535266e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1316051317840466</v>
+        <v>4.141979287446803e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.1265456200224821</v>
+        <v>3.982742389638126e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.1120933196438974</v>
+        <v>3.527888327242713e-05</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.1004549415431812</v>
+        <v>3.161596220094924e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.192873628691275</v>
+        <v>6.070269177989668e-05</v>
       </c>
     </row>
     <row r="16">
@@ -3105,175 +3105,175 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1697525776312438</v>
+        <v>5.342585437269017e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1769451703326681</v>
+        <v>5.568956321052077e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1501431745186037</v>
+        <v>4.725423017911172e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1604636258604632</v>
+        <v>5.050236306843016e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1659188426618652</v>
+        <v>5.221927142098711e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1543376028789362</v>
+        <v>4.85743333662492e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1401670210404382</v>
+        <v>4.411445739709315e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1236950586958398</v>
+        <v>3.893027301689098e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1161705452841195</v>
+        <v>3.656209950595202e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08550950148415559</v>
+        <v>2.691221681297752e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1308045756826597</v>
+        <v>4.116783561828558e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1448699458458867</v>
+        <v>4.55945985489254e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1722444980813771</v>
+        <v>5.421013100009056e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1951724630557743</v>
+        <v>6.142619884941212e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1672226586985801</v>
+        <v>5.262961856668774e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1473476635964223</v>
+        <v>4.637440519200508e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1339165537212624</v>
+        <v>4.214726160298296e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.118464574130414</v>
+        <v>3.728409414532132e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1095613707998063</v>
+        <v>3.448200859687806e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>0.112658270564515</v>
+        <v>3.545668902968756e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1252366622640629</v>
+        <v>3.941545850794857e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1354525320123273</v>
+        <v>4.263067666296695e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1386602571812283</v>
+        <v>4.364023693081513e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1522625360040347</v>
+        <v>4.792125214522112e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.145221614465485</v>
+        <v>4.570527843797497e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1092286910795382</v>
+        <v>3.437730504223515e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1188205719492522</v>
+        <v>3.739613655369972e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1279657180618224</v>
+        <v>4.027436822031106e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1442128707596533</v>
+        <v>4.538779875619833e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.1634858177309843</v>
+        <v>5.145353085046841e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1138605971953894</v>
+        <v>3.583509463852045e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.1471168752168903</v>
+        <v>4.630176967431314e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1541127406189064</v>
+        <v>4.850356296307827e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.2322354031714716</v>
+        <v>7.30909362506104e-05</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.2859240060020508</v>
+        <v>8.998823181056774e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.3138568829317981</v>
+        <v>9.877948456138478e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.3611467536825249</v>
+        <v>0.0001136629212860985</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.3423741617588745</v>
+        <v>0.000107754664832464</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.317096850912072</v>
+        <v>9.979919253814558e-05</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.3211624489632356</v>
+        <v>0.0001010787492462105</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.3461186248968489</v>
+        <v>0.0001089331514575561</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.3405299835158619</v>
+        <v>0.000107174250681331</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.4302875712607065</v>
+        <v>0.000135423458314084</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.4517527546591064</v>
+        <v>0.0001421791481441212</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4476689092813099</v>
+        <v>0.0001408938484951893</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.4055881873711389</v>
+        <v>0.0001276498756964123</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.351043093751055</v>
+        <v>0.0001104830186792438</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.2970932234209104</v>
+        <v>9.350349497536738e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.3007566739198075</v>
+        <v>9.465648467123406e-05</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.2730856580176056</v>
+        <v>8.594764686408826e-05</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.2989937940864735</v>
+        <v>9.410165738927759e-05</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.3065650866868142</v>
+        <v>9.648455361108068e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.3051888619561878</v>
+        <v>9.605141743684089e-05</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.2957169662469589</v>
+        <v>9.307034859031142e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.2704187577434266</v>
+        <v>8.510829922257974e-05</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.2442439468730454</v>
+        <v>7.687035872525496e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.210148672871703</v>
+        <v>6.613962833511202e-05</v>
       </c>
     </row>
     <row r="17">
@@ -3283,175 +3283,175 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2437520330019817</v>
+        <v>7.671553975751917e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2175686006698263</v>
+        <v>6.847488584654461e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2173703650786681</v>
+        <v>6.841249559614318e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2306835771083761</v>
+        <v>7.260253345628707e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2445899204689029</v>
+        <v>7.697924623204282e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2313700528163111</v>
+        <v>7.281858644183996e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2092510188808429</v>
+        <v>6.585711167432268e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2094008096135559</v>
+        <v>6.590425498126963e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2004054943518496</v>
+        <v>6.307317924790235e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1901641944958516</v>
+        <v>5.984995753116246e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2231755450933904</v>
+        <v>7.023954709899308e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2772711125474299</v>
+        <v>8.726492573734145e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2882817764386245</v>
+        <v>9.073028770006507e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2670870752552827</v>
+        <v>8.405972614103112e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2452563060514355</v>
+        <v>7.718897629673609e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09876959662855612</v>
+        <v>3.10855373129566e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2103015755697981</v>
+        <v>6.618775106406028e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2311319779167438</v>
+        <v>7.274365765376756e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2163526885237484</v>
+        <v>6.809220449847426e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2076151857631698</v>
+        <v>6.534226952498769e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2073972047994065</v>
+        <v>6.527366485701421e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1827990743281463</v>
+        <v>5.753194950437439e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05529763868395884</v>
+        <v>1.740370386540196e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1822590163227706</v>
+        <v>5.736197823942731e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1885968388371342</v>
+        <v>5.93566671414592e-05</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.1867712414882956</v>
+        <v>5.878210091416989e-05</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0908849987355721</v>
+        <v>2.860403520738708e-05</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.101317624192012</v>
+        <v>3.18874724083901e-05</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.09622425575893516</v>
+        <v>3.028444779474832e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1543109855136674</v>
+        <v>4.856595614158209e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.2035821525204348</v>
+        <v>6.407296186725867e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.2400389204967441</v>
+        <v>7.554692004792531e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.251651685741629</v>
+        <v>7.920178004177594e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.2284941917131926</v>
+        <v>7.191347301949735e-05</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2260696413568035</v>
+        <v>7.115039963311799e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.2404900066743776</v>
+        <v>7.568888940575226e-05</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.258508000568687</v>
+        <v>8.135965288585991e-05</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.2147520747202279</v>
+        <v>6.758844684620715e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.2397483192732627</v>
+        <v>7.545545976577294e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.2502738213911102</v>
+        <v>7.876812783358354e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.264649906317576</v>
+        <v>8.329268133638364e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.2626137157358188</v>
+        <v>8.265183556535614e-05</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.2659190322603136</v>
+        <v>8.369211054531496e-05</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.2683607662082951</v>
+        <v>8.446059208557823e-05</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.268173769966216</v>
+        <v>8.440173917072431e-05</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.2481788757742159</v>
+        <v>7.810879021993015e-05</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.2162718330061965</v>
+        <v>6.806675701976005e-05</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.1753967152147497</v>
+        <v>5.520222134633849e-05</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.1610867345283671</v>
+        <v>5.06984726852285e-05</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.1793693169044921</v>
+        <v>5.645250951467451e-05</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.1947919521494549</v>
+        <v>6.130644149107377e-05</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.2150149648751773</v>
+        <v>6.767118568487652e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.2075808474516109</v>
+        <v>6.533146230392309e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.1871522779869677</v>
+        <v>5.890202369103019e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.1923445180969537</v>
+        <v>6.053616596948651e-05</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.1744517354310697</v>
+        <v>5.490480994315087e-05</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.144839986415467</v>
+        <v>4.558516948346421e-05</v>
       </c>
     </row>
   </sheetData>
